--- a/sentiment_analysis/excel_output/RU_sentiment_analysis_google.xlsx
+++ b/sentiment_analysis/excel_output/RU_sentiment_analysis_google.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyin1\OneDrive\uni-hers\Projects and Competitions\Citi 24\Citi-Comp-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyin1\OneDrive\uni-hers\Projects and Competitions\Citi 24\Citi-Comp-24\sentiment_analysis\excel_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7B31D-52AF-4369-BCB1-2BE99EEC7B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15984193-0ECA-4079-B3FE-2C2AC934CA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -765,7 +778,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Russo-Ukraine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Sentiment Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -775,9 +848,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="57000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2844,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
